--- a/names.xlsx
+++ b/names.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/separate_group_ga/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06304262-D050-1641-966C-A9E1BBA69099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="名簿"/>
-    <sheet r:id="rId2" sheetId="2" name="グループ分け1"/>
-    <sheet r:id="rId3" sheetId="3" name="グループ分け2"/>
-    <sheet r:id="rId4" sheetId="4" name="グループ分け3"/>
-    <sheet r:id="rId5" sheetId="5" name="グループ分け4"/>
+    <sheet name="名簿" sheetId="1" r:id="rId1"/>
+    <sheet name="グループ分け1" sheetId="2" r:id="rId2"/>
+    <sheet name="グループ分け2" sheetId="3" r:id="rId3"/>
+    <sheet name="グループ分け3" sheetId="4" r:id="rId4"/>
+    <sheet name="グループ分け4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -182,55 +188,58 @@
     <t>部・室</t>
   </si>
   <si>
+    <t>氏名</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>課</t>
-  </si>
-  <si>
-    <t>氏名</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -246,6 +255,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,38 +306,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -332,10 +342,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -373,71 +383,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,7 +475,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -488,11 +498,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -501,13 +511,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -517,7 +527,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -526,7 +536,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -535,7 +545,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -543,10 +553,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -611,27 +621,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24">
+    <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -639,10 +646,10 @@
         <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -657,17 +664,17 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3">
@@ -683,35 +690,31 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="3">
@@ -727,17 +730,17 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3">
@@ -753,35 +756,31 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="3">
@@ -797,17 +796,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="3">
@@ -823,17 +822,17 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="3">
@@ -849,17 +848,17 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="3">
@@ -875,17 +874,17 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
       <c r="A11" s="3">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="3">
@@ -901,17 +900,17 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1">
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="3">
@@ -927,17 +926,17 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1">
       <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="3">
@@ -953,17 +952,17 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1">
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="3">
@@ -979,17 +978,17 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1">
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="3">
@@ -1005,17 +1004,17 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="3">
@@ -1031,17 +1030,17 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:8" ht="17.25" customHeight="1">
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="3">
@@ -1057,17 +1056,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:8" ht="17.25" customHeight="1">
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="3">
@@ -1083,17 +1082,17 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:8" ht="17.25" customHeight="1">
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="3">
@@ -1109,17 +1108,17 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row r="20" spans="1:8" ht="17.25" customHeight="1">
       <c r="A20" s="3">
         <v>1</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="3">
@@ -1135,17 +1134,17 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row r="21" spans="1:8" ht="17.25" customHeight="1">
       <c r="A21" s="3">
         <v>1</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3">
@@ -1161,17 +1160,17 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row r="22" spans="1:8" ht="17.25" customHeight="1">
       <c r="A22" s="3">
         <v>1</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="3">
@@ -1187,17 +1186,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row r="23" spans="1:8" ht="17.25" customHeight="1">
       <c r="A23" s="3">
         <v>1</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="3">
@@ -1213,17 +1212,17 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row r="24" spans="1:8" ht="17.25" customHeight="1">
       <c r="A24" s="3">
         <v>1</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="3">
@@ -1239,17 +1238,17 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row r="25" spans="1:8" ht="17.25" customHeight="1">
       <c r="A25" s="3">
         <v>1</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="3">
@@ -1265,17 +1264,17 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row r="26" spans="1:8" ht="17.25" customHeight="1">
       <c r="A26" s="3">
         <v>1</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="3">
@@ -1291,17 +1290,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:8" ht="17.25" customHeight="1">
       <c r="A27" s="3">
         <v>1</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="3">
@@ -1317,17 +1316,17 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row r="28" spans="1:8" ht="17.25" customHeight="1">
       <c r="A28" s="3">
         <v>1</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="3">
@@ -1343,17 +1342,17 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row r="29" spans="1:8" ht="17.25" customHeight="1">
       <c r="A29" s="3">
         <v>1</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="3">
@@ -1369,17 +1368,17 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1">
       <c r="A30" s="3">
         <v>1</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="3">
@@ -1395,17 +1394,17 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1">
       <c r="A31" s="3">
         <v>1</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="3">
@@ -1421,17 +1420,17 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row r="32" spans="1:8" ht="17.25" customHeight="1">
       <c r="A32" s="3">
         <v>1</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
         <v>47</v>
       </c>
       <c r="E32" s="3">
@@ -1447,17 +1446,17 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:8" ht="17.25" customHeight="1">
       <c r="A33" s="3">
         <v>1</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="3">
@@ -1473,17 +1472,17 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row r="34" spans="1:8" ht="17.25" customHeight="1">
       <c r="A34" s="3">
         <v>1</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="3">
@@ -1499,17 +1498,17 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row r="35" spans="1:8" ht="17.25" customHeight="1">
       <c r="A35" s="3">
         <v>1</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="3">
@@ -1525,17 +1524,17 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1">
       <c r="A36" s="3">
         <v>1</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="3">
@@ -1551,17 +1550,17 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row r="37" spans="1:8" ht="17.25" customHeight="1">
       <c r="A37" s="3">
         <v>1</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
         <v>43</v>
       </c>
       <c r="E37" s="3">
@@ -1577,17 +1576,17 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row r="38" spans="1:8" ht="17.25" customHeight="1">
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="3">
@@ -1603,17 +1602,17 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row r="39" spans="1:8" ht="17.25" customHeight="1">
       <c r="A39" s="3">
         <v>1</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="3">
@@ -1629,17 +1628,17 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row r="40" spans="1:8" ht="17.25" customHeight="1">
       <c r="A40" s="3">
         <v>1</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
         <v>44</v>
       </c>
       <c r="E40" s="3">
@@ -1655,17 +1654,17 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row r="41" spans="1:8" ht="17.25" customHeight="1">
       <c r="A41" s="3">
         <v>1</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="3">
@@ -1681,17 +1680,17 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row r="42" spans="1:8" ht="17.25" customHeight="1">
       <c r="A42" s="3">
         <v>1</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="3">
@@ -1707,17 +1706,17 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row r="43" spans="1:8" ht="17.25" customHeight="1">
       <c r="A43" s="3">
         <v>1</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="3">
@@ -1733,17 +1732,17 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row r="44" spans="1:8" ht="17.25" customHeight="1">
       <c r="A44" s="3">
         <v>1</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
         <v>48</v>
       </c>
       <c r="E44" s="3">
@@ -1759,17 +1758,17 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row r="45" spans="1:8" ht="17.25" customHeight="1">
       <c r="A45" s="3">
         <v>1</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="3">
@@ -1785,17 +1784,17 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row r="46" spans="1:8" ht="17.25" customHeight="1">
       <c r="A46" s="3">
         <v>1</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="3">
@@ -1812,12 +1811,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1825,17 +1825,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1855,199 +1851,193 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:6" ht="17.25" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:6" ht="17.25" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    </row>
+    <row r="9" spans="1:6" ht="17.25" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:6" ht="17.25" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2055,17 +2045,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -2085,199 +2071,193 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:6" ht="17.25" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    </row>
+    <row r="8" spans="1:6" ht="17.25" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:6" ht="17.25" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:6" ht="17.25" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2285,17 +2265,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -2315,199 +2291,193 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:6" ht="17.25" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    </row>
+    <row r="5" spans="1:6" ht="17.25" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:6" ht="17.25" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    </row>
+    <row r="8" spans="1:6" ht="17.25" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    </row>
+    <row r="9" spans="1:6" ht="17.25" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:6" ht="17.25" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    </row>
+    <row r="11" spans="1:6" ht="17.25" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2515,17 +2485,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2545,193 +2511,187 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:6" ht="17.25" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:6" ht="17.25" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:6" ht="17.25" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    </row>
+    <row r="8" spans="1:6" ht="17.25" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    </row>
+    <row r="9" spans="1:6" ht="17.25" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    </row>
+    <row r="11" spans="1:6" ht="17.25" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/names.xlsx
+++ b/names.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\Python Scripts\separate_group_ga\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C57885-5613-4DE0-8E1A-A01D78F271B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="名簿"/>
-    <sheet r:id="rId2" sheetId="2" name="グループ分け1"/>
-    <sheet r:id="rId3" sheetId="3" name="グループ分け2"/>
-    <sheet r:id="rId4" sheetId="4" name="グループ分け3"/>
-    <sheet r:id="rId5" sheetId="5" name="グループ分け4"/>
+    <sheet name="名簿" sheetId="1" r:id="rId1"/>
+    <sheet name="グループ分け1" sheetId="2" r:id="rId2"/>
+    <sheet name="グループ分け2" sheetId="3" r:id="rId3"/>
+    <sheet name="グループ分け3" sheetId="4" r:id="rId4"/>
+    <sheet name="グループ分け4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -182,55 +188,58 @@
     <t>部・室</t>
   </si>
   <si>
+    <t>氏名</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>課</t>
-  </si>
-  <si>
-    <t>氏名</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -246,6 +255,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,38 +314,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -332,10 +353,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -373,71 +394,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,7 +486,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -488,11 +509,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -501,13 +522,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -517,7 +538,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -526,7 +547,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -535,7 +556,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -543,10 +564,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -611,38 +632,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24">
+    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -657,17 +675,17 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3">
@@ -683,35 +701,31 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="3">
@@ -727,17 +741,17 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3">
@@ -753,35 +767,31 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="3">
@@ -797,17 +807,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="3">
@@ -823,17 +833,17 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="3">
@@ -849,17 +859,17 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="3">
@@ -875,17 +885,17 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="3">
@@ -901,17 +911,17 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="3">
@@ -927,17 +937,17 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="3">
@@ -953,17 +963,17 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="3">
@@ -979,17 +989,17 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="3">
@@ -1005,17 +1015,17 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="3">
@@ -1031,17 +1041,17 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="3">
@@ -1057,17 +1067,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="3">
@@ -1083,17 +1093,17 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="3">
@@ -1109,17 +1119,17 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="3">
@@ -1135,17 +1145,17 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3">
@@ -1161,17 +1171,17 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="3">
@@ -1187,17 +1197,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="3">
@@ -1213,17 +1223,17 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="3">
@@ -1239,17 +1249,17 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="3">
@@ -1265,17 +1275,17 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="3">
@@ -1291,17 +1301,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="3">
@@ -1317,17 +1327,17 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="3">
@@ -1343,17 +1353,17 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="3">
@@ -1369,17 +1379,17 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="3">
@@ -1395,17 +1405,17 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="3">
@@ -1421,17 +1431,17 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
         <v>47</v>
       </c>
       <c r="E32" s="3">
@@ -1447,17 +1457,17 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="3">
@@ -1473,17 +1483,17 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="3">
@@ -1499,17 +1509,17 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>1</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="3">
@@ -1525,17 +1535,17 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>1</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="3">
@@ -1551,17 +1561,17 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
         <v>43</v>
       </c>
       <c r="E37" s="3">
@@ -1577,17 +1587,17 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="3">
@@ -1603,17 +1613,17 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>1</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="3">
@@ -1629,17 +1639,17 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
         <v>44</v>
       </c>
       <c r="E40" s="3">
@@ -1655,17 +1665,17 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>1</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="3">
@@ -1681,17 +1691,17 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="3">
@@ -1707,17 +1717,17 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="3">
@@ -1733,17 +1743,17 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
         <v>48</v>
       </c>
       <c r="E44" s="3">
@@ -1759,17 +1769,17 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="3">
@@ -1785,17 +1795,17 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="3">
@@ -1812,12 +1822,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1825,17 +1836,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1855,199 +1862,193 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    </row>
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2055,17 +2056,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -2085,199 +2082,193 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    </row>
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2285,17 +2276,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -2315,199 +2302,193 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    </row>
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    </row>
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    </row>
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    </row>
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2515,17 +2496,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2545,193 +2522,187 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    </row>
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    </row>
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    </row>
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/names.xlsx
+++ b/names.xlsx
@@ -14,13 +14,19 @@
     <sheet name="グループ分け4" sheetId="5" r:id="rId5"/>
     <sheet name="グループ分け5" sheetId="6" r:id="rId6"/>
     <sheet name="グループ分け6" sheetId="7" r:id="rId7"/>
+    <sheet name="グループ分け7" sheetId="8" r:id="rId8"/>
+    <sheet name="グループ分け8" sheetId="9" r:id="rId9"/>
+    <sheet name="グループ分け9" sheetId="10" r:id="rId10"/>
+    <sheet name="グループ分け10" sheetId="11" r:id="rId11"/>
+    <sheet name="グループ分け11" sheetId="12" r:id="rId12"/>
+    <sheet name="グループ分け12" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="79">
   <si>
     <t>対象</t>
   </si>
@@ -52,6 +58,24 @@
     <t>グループ分け6</t>
   </si>
   <si>
+    <t>グループ分け7</t>
+  </si>
+  <si>
+    <t>グループ分け8</t>
+  </si>
+  <si>
+    <t>グループ分け9</t>
+  </si>
+  <si>
+    <t>グループ分け10</t>
+  </si>
+  <si>
+    <t>グループ分け11</t>
+  </si>
+  <si>
+    <t>グループ分け12</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -227,6 +251,18 @@
   </si>
   <si>
     <t>氏名5</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
 </sst>
 </file>
@@ -584,13 +620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,19 +657,37 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -651,41 +705,77 @@
         <v>9</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -703,18 +793,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,41 +822,77 @@
         <v>9</v>
       </c>
       <c r="J5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I6">
         <v>8</v>
       </c>
       <c r="J6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -784,21 +910,39 @@
         <v>1</v>
       </c>
       <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -816,21 +960,39 @@
         <v>1</v>
       </c>
       <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -848,21 +1010,39 @@
         <v>6</v>
       </c>
       <c r="J9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -880,21 +1060,39 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -912,21 +1110,39 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -944,21 +1160,39 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -976,21 +1210,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -1008,21 +1260,39 @@
         <v>7</v>
       </c>
       <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>8</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -1040,21 +1310,39 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -1072,21 +1360,39 @@
         <v>7</v>
       </c>
       <c r="J16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>9</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1104,21 +1410,39 @@
         <v>10</v>
       </c>
       <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>9</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -1136,21 +1460,39 @@
         <v>2</v>
       </c>
       <c r="J18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>8</v>
+      </c>
+      <c r="P18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -1168,21 +1510,39 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>11</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1200,21 +1560,39 @@
         <v>6</v>
       </c>
       <c r="J20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -1232,21 +1610,39 @@
         <v>5</v>
       </c>
       <c r="J21">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>12</v>
+      </c>
+      <c r="M21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="N21">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>7</v>
@@ -1264,21 +1660,39 @@
         <v>10</v>
       </c>
       <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>12</v>
+      </c>
+      <c r="O22">
+        <v>9</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -1296,21 +1710,39 @@
         <v>4</v>
       </c>
       <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="O23">
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -1328,21 +1760,39 @@
         <v>3</v>
       </c>
       <c r="J24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1360,21 +1810,39 @@
         <v>4</v>
       </c>
       <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>12</v>
+      </c>
+      <c r="L25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>12</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <v>9</v>
@@ -1392,21 +1860,39 @@
         <v>10</v>
       </c>
       <c r="J26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -1424,21 +1910,39 @@
         <v>5</v>
       </c>
       <c r="J27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>8</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>9</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -1456,21 +1960,39 @@
         <v>5</v>
       </c>
       <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>11</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1488,21 +2010,39 @@
         <v>3</v>
       </c>
       <c r="J29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>12</v>
+      </c>
+      <c r="O29">
+        <v>7</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -1520,21 +2060,39 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -1552,21 +2110,39 @@
         <v>2</v>
       </c>
       <c r="J31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>11</v>
+      </c>
+      <c r="M31">
+        <v>12</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1584,21 +2160,39 @@
         <v>7</v>
       </c>
       <c r="J32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>11</v>
+      </c>
+      <c r="P32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1616,21 +2210,39 @@
         <v>1</v>
       </c>
       <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="P33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -1648,21 +2260,39 @@
         <v>2</v>
       </c>
       <c r="J34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>9</v>
+      </c>
+      <c r="M34">
+        <v>8</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E35">
         <v>9</v>
@@ -1680,21 +2310,39 @@
         <v>8</v>
       </c>
       <c r="J35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>12</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>6</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -1712,21 +2360,39 @@
         <v>6</v>
       </c>
       <c r="J36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>12</v>
+      </c>
+      <c r="K36">
+        <v>11</v>
+      </c>
+      <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -1744,21 +2410,39 @@
         <v>0</v>
       </c>
       <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>8</v>
+      </c>
+      <c r="M37">
+        <v>11</v>
+      </c>
+      <c r="N37">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="O37">
+        <v>12</v>
+      </c>
+      <c r="P37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1776,21 +2460,39 @@
         <v>2</v>
       </c>
       <c r="J38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>7</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E39">
         <v>9</v>
@@ -1808,21 +2510,39 @@
         <v>3</v>
       </c>
       <c r="J39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>12</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>11</v>
+      </c>
+      <c r="O39">
+        <v>9</v>
+      </c>
+      <c r="P39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E40">
         <v>6</v>
@@ -1840,21 +2560,39 @@
         <v>7</v>
       </c>
       <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="N40">
+        <v>8</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -1872,21 +2610,39 @@
         <v>4</v>
       </c>
       <c r="J41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>9</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>7</v>
+      </c>
+      <c r="P41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E42">
         <v>8</v>
@@ -1904,21 +2660,39 @@
         <v>6</v>
       </c>
       <c r="J42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>8</v>
+      </c>
+      <c r="N42">
+        <v>12</v>
+      </c>
+      <c r="O42">
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -1936,21 +2710,39 @@
         <v>8</v>
       </c>
       <c r="J43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E44">
         <v>10</v>
@@ -1968,21 +2760,39 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>7</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>8</v>
+      </c>
+      <c r="O44">
+        <v>12</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2000,21 +2810,39 @@
         <v>9</v>
       </c>
       <c r="J45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <v>11</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
+      <c r="M45">
+        <v>9</v>
+      </c>
+      <c r="N45">
+        <v>7</v>
+      </c>
+      <c r="O45">
+        <v>6</v>
+      </c>
+      <c r="P45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -2032,7 +2860,2395 @@
         <v>6</v>
       </c>
       <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>9</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2053,19 +5269,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2073,16 +5289,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2090,16 +5306,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2107,19 +5323,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2127,16 +5343,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2144,16 +5360,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2161,19 +5377,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2181,16 +5397,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2198,16 +5414,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2215,19 +5431,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2235,16 +5451,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2265,19 +5481,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2285,16 +5501,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2302,16 +5518,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2319,19 +5535,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2339,16 +5555,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2356,16 +5572,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2373,16 +5589,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2390,19 +5606,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2410,16 +5626,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2427,19 +5643,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2447,16 +5663,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2477,19 +5693,19 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2497,16 +5713,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2514,19 +5730,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2534,16 +5750,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2551,16 +5767,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2568,19 +5784,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2588,16 +5804,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2605,16 +5821,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2622,19 +5838,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2642,16 +5858,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2659,16 +5875,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2689,19 +5905,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2709,19 +5925,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2729,16 +5945,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2746,19 +5962,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2766,16 +5982,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2783,19 +5999,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2803,16 +6019,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2820,16 +6036,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2837,16 +6053,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2854,16 +6070,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2871,16 +6087,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2901,19 +6117,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2921,16 +6137,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2938,16 +6154,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2955,16 +6171,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2972,16 +6188,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2989,16 +6205,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3006,16 +6222,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3023,19 +6239,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3043,16 +6259,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3060,16 +6276,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3077,16 +6293,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3094,16 +6310,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3132,17 +6348,17 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1">
-        <v>3</v>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -3153,22 +6369,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3185,16 +6401,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3217,16 +6433,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3249,13 +6465,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3278,16 +6497,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3299,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3310,22 +6529,22 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3345,13 +6564,13 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3374,13 +6593,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3406,13 +6628,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3430,18 +6649,18 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3464,10 +6683,949 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
       </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
       <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
         <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -3490,25 +7648,28 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
         <v>62</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3520,6 +7681,12 @@
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>0</v>
       </c>
     </row>

--- a/names.xlsx
+++ b/names.xlsx
@@ -20,13 +20,14 @@
     <sheet name="グループ分け10" sheetId="11" r:id="rId11"/>
     <sheet name="グループ分け11" sheetId="12" r:id="rId12"/>
     <sheet name="グループ分け12" sheetId="13" r:id="rId13"/>
+    <sheet name="グループ分け13" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="117">
   <si>
     <t>対象</t>
   </si>
@@ -40,6 +41,9 @@
     <t>氏名</t>
   </si>
   <si>
+    <t>司会回数</t>
+  </si>
+  <si>
     <t>グループ分け1</t>
   </si>
   <si>
@@ -76,6 +80,9 @@
     <t>グループ分け12</t>
   </si>
   <si>
+    <t>グループ分け13</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -263,6 +270,114 @@
   </si>
   <si>
     <t>3.1</t>
+  </si>
+  <si>
+    <t>Group_1</t>
+  </si>
+  <si>
+    <t>Group_2</t>
+  </si>
+  <si>
+    <t>Group_3</t>
+  </si>
+  <si>
+    <t>Group_4</t>
+  </si>
+  <si>
+    <t>Group_5</t>
+  </si>
+  <si>
+    <t>Group_6</t>
+  </si>
+  <si>
+    <t>Group_7</t>
+  </si>
+  <si>
+    <t>Group_8</t>
+  </si>
+  <si>
+    <t>Group_9</t>
+  </si>
+  <si>
+    <t>Group_10</t>
+  </si>
+  <si>
+    <t>Group_11</t>
+  </si>
+  <si>
+    <t>Group_12</t>
+  </si>
+  <si>
+    <t>Score_1</t>
+  </si>
+  <si>
+    <t>Score_2</t>
+  </si>
+  <si>
+    <t>Score_3</t>
+  </si>
+  <si>
+    <t>Score_4</t>
+  </si>
+  <si>
+    <t>Score_5</t>
+  </si>
+  <si>
+    <t>Score_6</t>
+  </si>
+  <si>
+    <t>Score_7</t>
+  </si>
+  <si>
+    <t>Score_8</t>
+  </si>
+  <si>
+    <t>Score_9</t>
+  </si>
+  <si>
+    <t>Score_10</t>
+  </si>
+  <si>
+    <t>Score_11</t>
+  </si>
+  <si>
+    <t>Score_12</t>
+  </si>
+  <si>
+    <t>Score_13</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 1, 0, 0, 1, 1, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1, 1, 0, 0, 0, 0, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0]</t>
   </si>
 </sst>
 </file>
@@ -620,13 +735,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,25 +790,31 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
         <v>6</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -702,224 +823,251 @@
         <v>2</v>
       </c>
       <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
         <v>9</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>6</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>12</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>7</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>9</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>12</v>
-      </c>
-      <c r="N3">
-        <v>4</v>
       </c>
       <c r="O3">
         <v>4</v>
       </c>
       <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="R3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>9</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>7</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>11</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>8</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="R5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>8</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>8</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>7</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>6</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="R6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>7</v>
-      </c>
-      <c r="M7">
-        <v>8</v>
       </c>
       <c r="N7">
         <v>8</v>
@@ -928,836 +1076,938 @@
         <v>8</v>
       </c>
       <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="R7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>9</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>8</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>7</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>8</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>7</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>5</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
       <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>10</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>6</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>6</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>3</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="R9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
       <c r="I10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
         <v>6</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
       <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>2</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>11</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="R10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>8</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>8</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
       </c>
       <c r="M11">
         <v>5</v>
       </c>
       <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
         <v>8</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>3</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="R11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>7</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>9</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>12</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>9</v>
-      </c>
-      <c r="M12">
-        <v>6</v>
       </c>
       <c r="N12">
         <v>6</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>9</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>8</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>8</v>
-      </c>
-      <c r="N13">
-        <v>5</v>
       </c>
       <c r="O13">
         <v>5</v>
       </c>
       <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="R13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>10</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>7</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>11</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>9</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>10</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>8</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="R14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>8</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
       </c>
       <c r="G15">
         <v>6</v>
       </c>
       <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
         <v>5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4</v>
-      </c>
-      <c r="J15">
-        <v>7</v>
       </c>
       <c r="K15">
         <v>7</v>
       </c>
       <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
         <v>6</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>7</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>11</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>7</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>12</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>4</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>10</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>12</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>9</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
       <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="R16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>10</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>11</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>11</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>4</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>9</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="R17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>8</v>
       </c>
       <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
         <v>9</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>11</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>6</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>10</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>3</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>8</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="R18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>9</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>10</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>7</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>9</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>6</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>4</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>7</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>11</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>10</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>11</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="R19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>9</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>3</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
       </c>
       <c r="I20">
         <v>6</v>
       </c>
       <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
         <v>4</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>10</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>3</v>
       </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>5</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>5</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>7</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>8</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
       <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <v>5</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>12</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>2</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>12</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>3</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>7</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>3</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="R21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>7</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>8</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>10</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3</v>
-      </c>
-      <c r="K22">
-        <v>8</v>
       </c>
       <c r="L22">
         <v>8</v>
       </c>
       <c r="M22">
+        <v>8</v>
+      </c>
+      <c r="N22">
         <v>7</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>12</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>9</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="R22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>10</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
       </c>
       <c r="G23">
         <v>4</v>
       </c>
       <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
         <v>2</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>10</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
       <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>11</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>6</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>7</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="R23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
         <v>6</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
       </c>
       <c r="G24">
         <v>5</v>
       </c>
       <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
         <v>9</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -1766,336 +2016,378 @@
         <v>3</v>
       </c>
       <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
         <v>5</v>
       </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
       <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <v>2</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>7</v>
       </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>7</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>10</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>5</v>
-      </c>
-      <c r="I25">
-        <v>4</v>
       </c>
       <c r="J25">
         <v>4</v>
       </c>
       <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
         <v>12</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>2</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
       </c>
       <c r="N25">
         <v>5</v>
       </c>
       <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
         <v>12</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="R25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>9</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>8</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>9</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>8</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>10</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
       <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>9</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>6</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>3</v>
-      </c>
-      <c r="N26">
-        <v>6</v>
       </c>
       <c r="O26">
         <v>6</v>
       </c>
       <c r="P26">
+        <v>6</v>
+      </c>
+      <c r="Q26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="R26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>10</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>9</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>4</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>9</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>8</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>4</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>10</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>9</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>5</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="R27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>8</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>5</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>6</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>4</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>5</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>6</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>11</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>3</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>4</v>
-      </c>
-      <c r="N28">
-        <v>6</v>
       </c>
       <c r="O28">
         <v>6</v>
       </c>
       <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="R28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>4</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>7</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>8</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>10</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>3</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>5</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
       <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
         <v>2</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>10</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>12</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>7</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="R29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>3</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
       <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>4</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>5</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>2</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>9</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>4</v>
-      </c>
-      <c r="M30">
-        <v>3</v>
       </c>
       <c r="N30">
         <v>3</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="R30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -2104,116 +2396,128 @@
         <v>3</v>
       </c>
       <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
         <v>4</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2</v>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
       <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>5</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>11</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>12</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>2</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>10</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="R31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
       <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>2</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>10</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>7</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>11</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>3</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>6</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>2</v>
       </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
       <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
         <v>11</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="R32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>8</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>5</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>7</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
       <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
         <v>7</v>
-      </c>
-      <c r="K33">
-        <v>4</v>
       </c>
       <c r="L33">
         <v>4</v>
@@ -2222,663 +2526,747 @@
         <v>4</v>
       </c>
       <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
         <v>7</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>3</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="R33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
         <v>10</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>2</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>8</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>5</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>2</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>6</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>10</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>9</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>8</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>4</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>2</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="R34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>9</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>10</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>5</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>3</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>8</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>2</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>12</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>7</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>6</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>10</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>5</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="R35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
       <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
         <v>10</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>7</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>6</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>12</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>11</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>8</v>
       </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
       <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
         <v>5</v>
-      </c>
-      <c r="O36">
-        <v>4</v>
       </c>
       <c r="P36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>5</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>8</v>
-      </c>
-      <c r="G37">
-        <v>9</v>
       </c>
       <c r="H37">
         <v>9</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>2</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>5</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>8</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>11</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>9</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>12</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="R37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>6</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>10</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>4</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>2</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>5</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>8</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>7</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>2</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>7</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>4</v>
       </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>9</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>2</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>7</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>3</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>4</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>7</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>12</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>3</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>11</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>9</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="R39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>6</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>4</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>6</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>9</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>7</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>8</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>10</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>2</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>6</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>8</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>3</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="R40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>3</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>5</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>7</v>
       </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
       <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
         <v>4</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
       <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
         <v>3</v>
       </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
       <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
         <v>9</v>
       </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
       <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
         <v>7</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="R41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
         <v>8</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
       <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>5</v>
-      </c>
-      <c r="H42">
-        <v>6</v>
       </c>
       <c r="I42">
         <v>6</v>
       </c>
       <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
         <v>10</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>2</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>10</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>8</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>12</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>10</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="R42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>7</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>9</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
         <v>8</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>6</v>
       </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
       <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
         <v>6</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>4</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>5</v>
       </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
       <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="R43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>10</v>
       </c>
       <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
         <v>2</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>10</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
       <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <v>7</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>2</v>
       </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
       <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
         <v>4</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>8</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>12</v>
       </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>6</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>4</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>3</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>9</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>8</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>11</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>5</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>9</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>7</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>6</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="R45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>5</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>3</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>7</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
       </c>
       <c r="I46">
         <v>6</v>
       </c>
       <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46">
         <v>5</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>7</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>9</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>2</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>4</v>
       </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
       <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
         <v>12</v>
+      </c>
+      <c r="R46">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2908,16 +3296,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -2937,16 +3325,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2978,16 +3366,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3019,16 +3407,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3060,16 +3448,16 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3101,16 +3489,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3142,16 +3530,16 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3183,16 +3571,16 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3224,16 +3612,16 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3265,13 +3653,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3303,13 +3691,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3341,13 +3729,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3379,13 +3767,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3442,16 +3830,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -3474,16 +3862,16 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3518,16 +3906,16 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3562,16 +3950,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3606,16 +3994,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3650,16 +4038,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3694,16 +4082,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3738,16 +4126,16 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3782,16 +4170,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3826,13 +4214,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3867,13 +4255,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3908,13 +4296,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3949,13 +4337,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4015,16 +4403,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -4050,16 +4438,16 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4097,16 +4485,16 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4144,16 +4532,16 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4191,16 +4579,16 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4238,16 +4626,16 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4285,16 +4673,16 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4332,16 +4720,16 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4379,16 +4767,16 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4426,13 +4814,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4470,13 +4858,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4514,13 +4902,13 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4558,13 +4946,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4626,17 +5014,17 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1">
-        <v>3</v>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -4665,16 +5053,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4715,16 +5103,16 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4765,16 +5153,16 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4815,16 +5203,16 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4865,16 +5253,16 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4915,16 +5303,16 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4965,16 +5353,16 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5015,16 +5403,16 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5065,13 +5453,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5112,13 +5500,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5159,13 +5547,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5206,49 +5594,586 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BQ7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:69">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
+      <c r="BP1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69">
+      <c r="M6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>110</v>
+      </c>
+      <c r="R6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S6" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6" t="s">
+        <v>113</v>
+      </c>
+      <c r="U6" t="s">
+        <v>114</v>
+      </c>
+      <c r="V6" t="s">
+        <v>115</v>
+      </c>
+      <c r="W6" t="s">
+        <v>113</v>
+      </c>
+      <c r="X6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69">
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>2</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>2</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>3</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7">
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7">
+        <v>1</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5266,22 +6191,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5289,16 +6214,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5306,16 +6231,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5323,19 +6248,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5343,16 +6268,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5360,16 +6285,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5377,19 +6302,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5397,16 +6322,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5414,16 +6339,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5431,19 +6356,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5451,16 +6376,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5478,22 +6403,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5501,16 +6426,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5518,16 +6443,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5535,19 +6460,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5555,16 +6480,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5572,16 +6497,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5589,16 +6514,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5606,19 +6531,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5626,16 +6551,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5643,19 +6568,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5663,16 +6588,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5690,22 +6615,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5713,16 +6638,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5730,19 +6655,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5750,16 +6675,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5767,16 +6692,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5784,19 +6709,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5804,16 +6729,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5821,16 +6746,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5838,19 +6763,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5858,16 +6783,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5875,16 +6800,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5902,22 +6827,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5925,19 +6850,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5945,16 +6870,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5962,19 +6887,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5982,16 +6907,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5999,19 +6924,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6019,16 +6944,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6036,16 +6961,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6053,16 +6978,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6070,16 +6995,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6087,16 +7012,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6114,22 +7039,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6137,16 +7062,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6154,16 +7079,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6171,16 +7096,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6188,16 +7113,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6205,16 +7130,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6222,16 +7147,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6239,19 +7164,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6259,16 +7184,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6276,16 +7201,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6293,16 +7218,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6310,16 +7235,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6349,16 +7274,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -6369,16 +7294,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6401,16 +7326,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6433,16 +7358,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6465,16 +7390,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6497,16 +7422,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6529,16 +7454,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6561,16 +7486,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6593,16 +7518,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6625,13 +7550,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6654,13 +7579,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -6683,13 +7608,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -6712,13 +7637,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6766,16 +7691,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -6789,16 +7714,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6824,16 +7749,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6859,16 +7784,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6894,16 +7819,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6929,16 +7854,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6964,16 +7889,16 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6999,16 +7924,16 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7034,16 +7959,16 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7069,13 +7994,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7101,13 +8026,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7133,13 +8058,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -7165,13 +8090,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -7222,16 +8147,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -7248,16 +8173,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7286,16 +8211,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7324,16 +8249,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7362,16 +8287,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7400,16 +8325,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7438,16 +8363,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7476,16 +8401,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7514,16 +8439,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7552,13 +8477,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7587,13 +8512,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7622,13 +8547,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -7657,13 +8582,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>0</v>

--- a/names.xlsx
+++ b/names.xlsx
@@ -21,13 +21,14 @@
     <sheet name="グループ分け11" sheetId="12" r:id="rId12"/>
     <sheet name="グループ分け12" sheetId="13" r:id="rId13"/>
     <sheet name="グループ分け13" sheetId="14" r:id="rId14"/>
+    <sheet name="グループ分け14" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="82">
   <si>
     <t>対象</t>
   </si>
@@ -81,6 +82,9 @@
   </si>
   <si>
     <t>グループ分け13</t>
+  </si>
+  <si>
+    <t>グループ分け14</t>
   </si>
   <si>
     <t>a</t>
@@ -270,114 +274,6 @@
   </si>
   <si>
     <t>3.1</t>
-  </si>
-  <si>
-    <t>Group_1</t>
-  </si>
-  <si>
-    <t>Group_2</t>
-  </si>
-  <si>
-    <t>Group_3</t>
-  </si>
-  <si>
-    <t>Group_4</t>
-  </si>
-  <si>
-    <t>Group_5</t>
-  </si>
-  <si>
-    <t>Group_6</t>
-  </si>
-  <si>
-    <t>Group_7</t>
-  </si>
-  <si>
-    <t>Group_8</t>
-  </si>
-  <si>
-    <t>Group_9</t>
-  </si>
-  <si>
-    <t>Group_10</t>
-  </si>
-  <si>
-    <t>Group_11</t>
-  </si>
-  <si>
-    <t>Group_12</t>
-  </si>
-  <si>
-    <t>Score_1</t>
-  </si>
-  <si>
-    <t>Score_2</t>
-  </si>
-  <si>
-    <t>Score_3</t>
-  </si>
-  <si>
-    <t>Score_4</t>
-  </si>
-  <si>
-    <t>Score_5</t>
-  </si>
-  <si>
-    <t>Score_6</t>
-  </si>
-  <si>
-    <t>Score_7</t>
-  </si>
-  <si>
-    <t>Score_8</t>
-  </si>
-  <si>
-    <t>Score_9</t>
-  </si>
-  <si>
-    <t>Score_10</t>
-  </si>
-  <si>
-    <t>Score_11</t>
-  </si>
-  <si>
-    <t>Score_12</t>
-  </si>
-  <si>
-    <t>Score_13</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 1, 0, 0, 1, 1, 1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 1, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 1, 1, 0, 0, 0, 0, 0, 1, 1]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0]</t>
   </si>
 </sst>
 </file>
@@ -735,13 +631,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,19 +692,22 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -850,24 +749,27 @@
         <v>2</v>
       </c>
       <c r="R2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -894,21 +796,24 @@
         <v>3</v>
       </c>
       <c r="R3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -929,18 +834,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -982,24 +887,27 @@
         <v>10</v>
       </c>
       <c r="R5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>8</v>
@@ -1026,21 +934,24 @@
         <v>8</v>
       </c>
       <c r="R6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1082,24 +993,27 @@
         <v>11</v>
       </c>
       <c r="R7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1138,24 +1052,27 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1196,19 +1113,22 @@
       <c r="R9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1250,24 +1170,27 @@
         <v>9</v>
       </c>
       <c r="R10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -1306,21 +1229,24 @@
         <v>5</v>
       </c>
       <c r="R11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1362,24 +1288,27 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>9</v>
@@ -1418,24 +1347,27 @@
         <v>3</v>
       </c>
       <c r="R13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -1474,24 +1406,27 @@
         <v>2</v>
       </c>
       <c r="R14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -1530,24 +1465,27 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1586,24 +1524,27 @@
         <v>11</v>
       </c>
       <c r="R16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -1642,21 +1583,24 @@
         <v>8</v>
       </c>
       <c r="R17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>12</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1698,21 +1642,24 @@
         <v>7</v>
       </c>
       <c r="R18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1754,24 +1701,27 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1810,21 +1760,24 @@
         <v>6</v>
       </c>
       <c r="R20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>9</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1866,24 +1819,27 @@
         <v>10</v>
       </c>
       <c r="R21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -1922,24 +1878,27 @@
         <v>5</v>
       </c>
       <c r="R22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -1978,21 +1937,24 @@
         <v>12</v>
       </c>
       <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -2036,19 +1998,22 @@
       <c r="R24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2090,24 +2055,27 @@
         <v>3</v>
       </c>
       <c r="R25">
+        <v>10</v>
+      </c>
+      <c r="S25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>9</v>
@@ -2146,24 +2114,27 @@
         <v>12</v>
       </c>
       <c r="R26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -2202,24 +2173,27 @@
         <v>8</v>
       </c>
       <c r="R27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -2258,21 +2232,24 @@
         <v>9</v>
       </c>
       <c r="R28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2314,21 +2291,24 @@
         <v>2</v>
       </c>
       <c r="R29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2370,24 +2350,27 @@
         <v>5</v>
       </c>
       <c r="R30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>8</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -2426,24 +2409,27 @@
         <v>7</v>
       </c>
       <c r="R31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -2482,24 +2468,27 @@
         <v>9</v>
       </c>
       <c r="R32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2538,21 +2527,24 @@
         <v>6</v>
       </c>
       <c r="R33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2596,19 +2588,22 @@
       <c r="R34">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2652,22 +2647,25 @@
       <c r="R35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -2706,21 +2704,24 @@
         <v>4</v>
       </c>
       <c r="R36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>11</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2764,19 +2765,22 @@
       <c r="R37">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2818,21 +2822,24 @@
         <v>1</v>
       </c>
       <c r="R38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2874,21 +2881,24 @@
         <v>5</v>
       </c>
       <c r="R39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>7</v>
+      </c>
+      <c r="S39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2930,24 +2940,27 @@
         <v>7</v>
       </c>
       <c r="R40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>9</v>
+      </c>
+      <c r="S40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -2986,21 +2999,24 @@
         <v>11</v>
       </c>
       <c r="R41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>12</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3042,21 +3058,24 @@
         <v>2</v>
       </c>
       <c r="R42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3098,21 +3117,24 @@
         <v>8</v>
       </c>
       <c r="R43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>4</v>
+      </c>
+      <c r="S43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3154,21 +3176,24 @@
         <v>1</v>
       </c>
       <c r="R44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>9</v>
+      </c>
+      <c r="S44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3210,21 +3235,24 @@
         <v>7</v>
       </c>
       <c r="R45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3266,7 +3294,10 @@
         <v>12</v>
       </c>
       <c r="R46">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="S46">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3296,16 +3327,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -3325,16 +3356,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3366,16 +3397,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3407,16 +3438,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3448,16 +3479,16 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3489,16 +3520,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3530,16 +3561,16 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3571,16 +3602,16 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3612,16 +3643,16 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3653,13 +3684,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3691,13 +3722,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3729,13 +3760,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3767,13 +3798,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3830,16 +3861,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -3862,16 +3893,16 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3906,16 +3937,16 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3950,16 +3981,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3994,16 +4025,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4038,16 +4069,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4082,16 +4113,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4126,16 +4157,16 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4170,16 +4201,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4214,13 +4245,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4255,13 +4286,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4296,13 +4327,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4337,13 +4368,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4403,16 +4434,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -4438,16 +4469,16 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4485,16 +4516,16 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4532,16 +4563,16 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4579,16 +4610,16 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4626,16 +4657,16 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4673,16 +4704,16 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4720,16 +4751,16 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4767,16 +4798,16 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4814,13 +4845,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4858,13 +4889,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4902,13 +4933,13 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4946,13 +4977,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5015,16 +5046,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -5053,16 +5084,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5103,16 +5134,16 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5153,16 +5184,16 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5203,16 +5234,16 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5253,16 +5284,16 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5303,16 +5334,16 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5353,16 +5384,16 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5403,16 +5434,16 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5453,13 +5484,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5500,13 +5531,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5547,13 +5578,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5594,13 +5625,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5646,534 +5677,1416 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ7"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:69">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM1" s="1" t="s">
+      <c r="C13" t="s">
         <v>67</v>
       </c>
-      <c r="BN1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:69">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:69">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:69">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:69">
-      <c r="M6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" t="s">
-        <v>108</v>
-      </c>
-      <c r="P6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>110</v>
-      </c>
-      <c r="R6" t="s">
-        <v>111</v>
-      </c>
-      <c r="S6" t="s">
-        <v>112</v>
-      </c>
-      <c r="T6" t="s">
-        <v>113</v>
-      </c>
-      <c r="U6" t="s">
-        <v>114</v>
-      </c>
-      <c r="V6" t="s">
-        <v>115</v>
-      </c>
-      <c r="W6" t="s">
-        <v>113</v>
-      </c>
-      <c r="X6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:69">
-      <c r="Z7">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>2</v>
-      </c>
-      <c r="AC7">
-        <v>1</v>
-      </c>
-      <c r="AD7">
-        <v>1</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>2</v>
-      </c>
-      <c r="AG7">
-        <v>2</v>
-      </c>
-      <c r="AH7">
-        <v>1</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-      <c r="AM7">
-        <v>1</v>
-      </c>
-      <c r="AN7">
-        <v>1</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AR7">
-        <v>2</v>
-      </c>
-      <c r="AS7">
-        <v>1</v>
-      </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AU7">
-        <v>2</v>
-      </c>
-      <c r="AV7">
-        <v>1</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>1</v>
-      </c>
-      <c r="BA7">
-        <v>1</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>3</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>1</v>
-      </c>
-      <c r="BK7">
-        <v>1</v>
-      </c>
-      <c r="BL7">
-        <v>1</v>
-      </c>
-      <c r="BM7">
-        <v>1</v>
-      </c>
-      <c r="BN7">
-        <v>1</v>
-      </c>
-      <c r="BO7">
-        <v>1</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>1</v>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6194,19 +7107,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6214,16 +7127,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6231,16 +7144,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6248,19 +7161,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6268,16 +7181,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6285,16 +7198,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6302,19 +7215,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6322,16 +7235,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6339,16 +7252,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6356,19 +7269,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6376,16 +7289,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6406,19 +7319,19 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6426,16 +7339,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6443,16 +7356,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6460,19 +7373,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6480,16 +7393,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6497,16 +7410,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6514,16 +7427,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6531,19 +7444,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6551,16 +7464,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6568,19 +7481,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6588,16 +7501,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6618,19 +7531,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6638,16 +7551,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6655,19 +7568,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6675,16 +7588,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6692,16 +7605,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6709,19 +7622,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6729,16 +7642,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6746,16 +7659,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6763,19 +7676,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6783,16 +7696,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6800,16 +7713,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6830,19 +7743,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6850,19 +7763,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6870,16 +7783,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6887,19 +7800,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6907,16 +7820,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6924,19 +7837,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6944,16 +7857,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6961,16 +7874,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6978,16 +7891,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6995,16 +7908,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7012,16 +7925,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -7042,19 +7955,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7062,16 +7975,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7079,16 +7992,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7096,16 +8009,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7113,16 +8026,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7130,16 +8043,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7147,16 +8060,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7164,19 +8077,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7184,16 +8097,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7201,16 +8114,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7218,16 +8131,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7235,16 +8148,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -7274,16 +8187,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -7294,16 +8207,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7326,16 +8239,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7358,16 +8271,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7390,16 +8303,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7422,16 +8335,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7454,16 +8367,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7486,16 +8399,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7518,16 +8431,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7550,13 +8463,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7579,13 +8492,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7608,13 +8521,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -7637,13 +8550,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -7691,16 +8604,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -7714,16 +8627,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7749,16 +8662,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7784,16 +8697,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7819,16 +8732,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7854,16 +8767,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7889,16 +8802,16 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7924,16 +8837,16 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7959,16 +8872,16 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7994,13 +8907,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -8026,13 +8939,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -8058,13 +8971,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -8090,13 +9003,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -8147,16 +9060,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -8173,16 +9086,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -8211,16 +9124,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -8249,16 +9162,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -8287,16 +9200,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8325,16 +9238,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -8363,16 +9276,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8401,16 +9314,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8439,16 +9352,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -8477,13 +9390,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -8512,13 +9425,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -8547,13 +9460,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -8582,13 +9495,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>0</v>

--- a/names.xlsx
+++ b/names.xlsx
@@ -22,13 +22,16 @@
     <sheet name="グループ分け12" sheetId="13" r:id="rId13"/>
     <sheet name="グループ分け13" sheetId="14" r:id="rId14"/>
     <sheet name="グループ分け14" sheetId="15" r:id="rId15"/>
+    <sheet name="グループ分け15" sheetId="16" r:id="rId16"/>
+    <sheet name="グループ分け16" sheetId="17" r:id="rId17"/>
+    <sheet name="グループ分け17" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="85">
   <si>
     <t>対象</t>
   </si>
@@ -85,6 +88,15 @@
   </si>
   <si>
     <t>グループ分け14</t>
+  </si>
+  <si>
+    <t>グループ分け15</t>
+  </si>
+  <si>
+    <t>グループ分け16</t>
+  </si>
+  <si>
+    <t>グループ分け17</t>
   </si>
   <si>
     <t>a</t>
@@ -631,13 +643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,19 +707,28 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -754,19 +775,28 @@
       <c r="S2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -801,19 +831,28 @@
       <c r="S3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>8</v>
+      </c>
+      <c r="U3">
+        <v>8</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -834,21 +873,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -892,19 +931,28 @@
       <c r="S5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>12</v>
+      </c>
+      <c r="U5">
+        <v>11</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -939,22 +987,31 @@
       <c r="S6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -998,19 +1055,28 @@
       <c r="S7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>8</v>
+      </c>
+      <c r="V7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1057,22 +1123,31 @@
       <c r="S8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1116,19 +1191,28 @@
       <c r="S9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1175,22 +1259,31 @@
       <c r="S10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -1234,22 +1327,31 @@
       <c r="S11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1293,22 +1395,31 @@
       <c r="S12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>9</v>
@@ -1352,22 +1463,31 @@
       <c r="S13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>7</v>
+      </c>
+      <c r="V13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -1411,22 +1531,31 @@
       <c r="S14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>8</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -1470,22 +1599,31 @@
       <c r="S15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1529,19 +1667,28 @@
       <c r="S16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1588,22 +1735,31 @@
       <c r="S17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>9</v>
+      </c>
+      <c r="U17">
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1647,22 +1803,31 @@
       <c r="S18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -1706,19 +1871,28 @@
       <c r="S19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>11</v>
+      </c>
+      <c r="U19">
+        <v>7</v>
+      </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1765,19 +1939,28 @@
       <c r="S20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>6</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1824,22 +2007,31 @@
       <c r="S21">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>9</v>
+      </c>
+      <c r="U21">
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -1883,22 +2075,31 @@
       <c r="S22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>10</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -1942,19 +2143,28 @@
       <c r="S23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>9</v>
+      </c>
+      <c r="V23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -2001,22 +2211,31 @@
       <c r="S24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>11</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2060,22 +2279,31 @@
       <c r="S25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>7</v>
+      </c>
+      <c r="U25">
+        <v>11</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>9</v>
@@ -2119,22 +2347,31 @@
       <c r="S26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <v>6</v>
+      </c>
+      <c r="V26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -2178,22 +2415,31 @@
       <c r="S27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>8</v>
+      </c>
+      <c r="V27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -2237,22 +2483,31 @@
       <c r="S28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>10</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -2296,22 +2551,31 @@
       <c r="S29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <v>6</v>
+      </c>
+      <c r="V29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -2355,19 +2619,28 @@
       <c r="S30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>11</v>
+      </c>
+      <c r="U30">
+        <v>7</v>
+      </c>
+      <c r="V30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2414,22 +2687,31 @@
       <c r="S31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31">
+        <v>8</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -2473,22 +2755,31 @@
       <c r="S32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32">
+        <v>7</v>
+      </c>
+      <c r="U32">
+        <v>10</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2532,19 +2823,28 @@
       <c r="S33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33">
+        <v>12</v>
+      </c>
+      <c r="U33">
+        <v>9</v>
+      </c>
+      <c r="V33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2591,22 +2891,31 @@
       <c r="S34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>8</v>
+      </c>
+      <c r="V34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>9</v>
@@ -2650,22 +2959,31 @@
       <c r="S35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+      <c r="V35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -2709,19 +3027,28 @@
       <c r="S36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>7</v>
+      </c>
+      <c r="V36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2768,22 +3095,31 @@
       <c r="S37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37">
+        <v>10</v>
+      </c>
+      <c r="U37">
+        <v>9</v>
+      </c>
+      <c r="V37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -2827,22 +3163,31 @@
       <c r="S38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>9</v>
@@ -2886,22 +3231,31 @@
       <c r="S39">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39">
+        <v>8</v>
+      </c>
+      <c r="U39">
+        <v>11</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -2945,22 +3299,31 @@
       <c r="S40">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40">
+        <v>9</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+      <c r="V40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -3004,22 +3367,31 @@
       <c r="S41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41">
+        <v>12</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -3063,22 +3435,31 @@
       <c r="S42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42">
+        <v>7</v>
+      </c>
+      <c r="U42">
+        <v>5</v>
+      </c>
+      <c r="V42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>7</v>
@@ -3122,22 +3503,31 @@
       <c r="S43">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <v>4</v>
+      </c>
+      <c r="V43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -3181,22 +3571,31 @@
       <c r="S44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44">
+        <v>5</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3240,22 +3639,31 @@
       <c r="S45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>10</v>
+      </c>
+      <c r="V45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -3297,6 +3705,15 @@
         <v>10</v>
       </c>
       <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
         <v>3</v>
       </c>
     </row>
@@ -3327,16 +3744,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -3356,16 +3773,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3397,16 +3814,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3438,16 +3855,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3479,16 +3896,16 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3520,16 +3937,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3561,16 +3978,16 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3602,16 +4019,16 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3643,16 +4060,16 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3684,13 +4101,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3722,13 +4139,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3760,13 +4177,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3798,13 +4215,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3861,16 +4278,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -3893,16 +4310,16 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3937,16 +4354,16 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3981,16 +4398,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4025,16 +4442,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4069,16 +4486,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4113,16 +4530,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4157,16 +4574,16 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4201,16 +4618,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4245,13 +4662,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4286,13 +4703,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4327,13 +4744,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4368,13 +4785,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4434,16 +4851,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -4469,16 +4886,16 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4516,16 +4933,16 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4563,16 +4980,16 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4610,16 +5027,16 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4657,16 +5074,16 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4704,16 +5121,16 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4751,16 +5168,16 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4798,16 +5215,16 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4845,13 +5262,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4889,13 +5306,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4933,13 +5350,13 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4977,13 +5394,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5046,16 +5463,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -5084,16 +5501,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5134,16 +5551,16 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5184,16 +5601,16 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5234,16 +5651,16 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5284,16 +5701,16 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5334,16 +5751,16 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5384,16 +5801,16 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5434,16 +5851,16 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5484,13 +5901,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5531,13 +5948,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5578,13 +5995,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5625,13 +6042,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5697,16 +6114,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -5738,16 +6155,16 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5791,16 +6208,16 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5844,16 +6261,16 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5897,16 +6314,16 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5950,16 +6367,16 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6003,16 +6420,16 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6056,16 +6473,16 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6109,16 +6526,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6162,13 +6579,13 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6212,13 +6629,13 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -6262,13 +6679,13 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -6312,13 +6729,13 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6386,6 +6803,2260 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
       <c r="E1" s="1">
         <v>0</v>
       </c>
@@ -6428,240 +9099,285 @@
       <c r="R1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
         <v>72</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
@@ -6682,45 +9398,51 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6732,10 +9454,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -6744,10 +9466,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -6756,307 +9478,355 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -7074,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -7086,6 +9856,77 @@
         <v>0</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
         <v>0</v>
       </c>
     </row>
@@ -7107,19 +9948,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7127,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7144,16 +9985,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7161,19 +10002,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7181,16 +10022,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7198,16 +10039,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7215,19 +10056,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7235,16 +10076,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7252,16 +10093,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7269,19 +10110,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7289,16 +10130,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -7319,19 +10160,19 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7339,16 +10180,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7356,16 +10197,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7373,19 +10214,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7393,16 +10234,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7410,16 +10251,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7427,16 +10268,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7444,19 +10285,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7464,16 +10305,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7481,19 +10322,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7501,16 +10342,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -7531,19 +10372,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7551,16 +10392,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7568,19 +10409,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7588,16 +10429,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7605,16 +10446,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7622,19 +10463,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7642,16 +10483,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7659,16 +10500,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7676,19 +10517,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7696,16 +10537,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7713,16 +10554,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -7743,19 +10584,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7763,19 +10604,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7783,16 +10624,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7800,19 +10641,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7820,16 +10661,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7837,19 +10678,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7857,16 +10698,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7874,16 +10715,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7891,16 +10732,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7908,16 +10749,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7925,16 +10766,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -7955,19 +10796,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7975,16 +10816,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7992,16 +10833,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8009,16 +10850,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8026,16 +10867,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8043,16 +10884,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8060,16 +10901,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8077,19 +10918,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8097,16 +10938,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8114,16 +10955,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8131,16 +10972,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8148,16 +10989,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -8187,16 +11028,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -8207,16 +11048,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -8239,16 +11080,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -8271,16 +11112,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -8303,16 +11144,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8335,16 +11176,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -8367,16 +11208,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8399,16 +11240,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8431,16 +11272,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -8463,13 +11304,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -8492,13 +11333,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -8521,13 +11362,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -8550,13 +11391,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -8604,16 +11445,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -8627,16 +11468,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -8662,16 +11503,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -8697,16 +11538,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -8732,16 +11573,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8767,16 +11608,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -8802,16 +11643,16 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8837,16 +11678,16 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8872,16 +11713,16 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -8907,13 +11748,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -8939,13 +11780,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -8971,13 +11812,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9003,13 +11844,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -9060,16 +11901,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -9086,16 +11927,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -9124,16 +11965,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9162,16 +12003,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9200,16 +12041,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9238,16 +12079,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -9276,16 +12117,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9314,16 +12155,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9352,16 +12193,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -9390,13 +12231,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -9425,13 +12266,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -9460,13 +12301,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9495,13 +12336,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>0</v>

--- a/names.xlsx
+++ b/names.xlsx
@@ -25,13 +25,14 @@
     <sheet name="グループ分け15" sheetId="16" r:id="rId16"/>
     <sheet name="グループ分け16" sheetId="17" r:id="rId17"/>
     <sheet name="グループ分け17" sheetId="18" r:id="rId18"/>
+    <sheet name="グループ分け18" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="86">
   <si>
     <t>対象</t>
   </si>
@@ -97,6 +98,9 @@
   </si>
   <si>
     <t>グループ分け17</t>
+  </si>
+  <si>
+    <t>グループ分け18</t>
   </si>
   <si>
     <t>a</t>
@@ -643,13 +647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,22 +720,25 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -784,22 +791,25 @@
       <c r="V2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -840,19 +850,22 @@
       <c r="V3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -873,18 +886,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -940,19 +953,22 @@
       <c r="V5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -996,19 +1012,22 @@
       <c r="V6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1064,22 +1083,25 @@
       <c r="V7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1132,19 +1154,22 @@
       <c r="V8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -1200,22 +1225,25 @@
       <c r="V9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1268,19 +1296,22 @@
       <c r="V10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1336,19 +1367,22 @@
       <c r="V11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1404,22 +1438,25 @@
       <c r="V12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>9</v>
@@ -1472,19 +1509,22 @@
       <c r="V13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1540,19 +1580,22 @@
       <c r="V14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1608,19 +1651,22 @@
       <c r="V15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1676,22 +1722,25 @@
       <c r="V16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -1744,22 +1793,25 @@
       <c r="V17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1812,19 +1864,22 @@
       <c r="V18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1880,19 +1935,22 @@
       <c r="V19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1948,19 +2006,22 @@
       <c r="V20">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -2016,19 +2077,22 @@
       <c r="V21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -2084,19 +2148,22 @@
       <c r="V22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -2152,19 +2219,22 @@
       <c r="V23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -2220,19 +2290,22 @@
       <c r="V24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -2288,19 +2361,22 @@
       <c r="V25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2356,19 +2432,22 @@
       <c r="V26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2424,22 +2503,25 @@
       <c r="V27">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -2492,19 +2574,22 @@
       <c r="V28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2560,19 +2645,22 @@
       <c r="V29">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2628,22 +2716,25 @@
       <c r="V30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -2696,19 +2787,22 @@
       <c r="V31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2764,19 +2858,22 @@
       <c r="V32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -2832,19 +2929,22 @@
       <c r="V33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2900,19 +3000,22 @@
       <c r="V34">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2968,19 +3071,22 @@
       <c r="V35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -3036,22 +3142,25 @@
       <c r="V36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -3104,19 +3213,22 @@
       <c r="V37">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -3172,19 +3284,22 @@
       <c r="V38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -3240,19 +3355,22 @@
       <c r="V39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -3308,19 +3426,22 @@
       <c r="V40">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -3376,19 +3497,22 @@
       <c r="V41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -3444,19 +3568,22 @@
       <c r="V42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -3512,19 +3639,22 @@
       <c r="V43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -3580,22 +3710,25 @@
       <c r="V44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3648,19 +3781,22 @@
       <c r="V45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -3715,6 +3851,9 @@
       </c>
       <c r="V46">
         <v>3</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3744,16 +3883,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -3773,16 +3912,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3814,16 +3953,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3855,16 +3994,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3896,16 +4035,16 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3937,16 +4076,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3978,16 +4117,16 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4019,16 +4158,16 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4060,16 +4199,16 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4101,13 +4240,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4139,13 +4278,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4177,13 +4316,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4215,13 +4354,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4278,16 +4417,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -4310,16 +4449,16 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4354,16 +4493,16 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4398,16 +4537,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4442,16 +4581,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4486,16 +4625,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4530,16 +4669,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4574,16 +4713,16 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4618,16 +4757,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4662,13 +4801,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4703,13 +4842,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4744,13 +4883,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4785,13 +4924,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4851,16 +4990,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -4886,16 +5025,16 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4933,16 +5072,16 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4980,16 +5119,16 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5027,16 +5166,16 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5074,16 +5213,16 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5121,16 +5260,16 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5168,16 +5307,16 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5215,16 +5354,16 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5262,13 +5401,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5306,13 +5445,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5350,13 +5489,13 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5394,13 +5533,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5463,16 +5602,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -5501,16 +5640,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5551,16 +5690,16 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5601,16 +5740,16 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5651,16 +5790,16 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5701,16 +5840,16 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5751,16 +5890,16 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5801,16 +5940,16 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5851,16 +5990,16 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5901,13 +6040,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5948,13 +6087,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5995,13 +6134,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -6042,13 +6181,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6114,16 +6253,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -6155,16 +6294,16 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6208,16 +6347,16 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6261,16 +6400,16 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6314,16 +6453,16 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6367,16 +6506,16 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6420,16 +6559,16 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6473,16 +6612,16 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6526,16 +6665,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6579,13 +6718,13 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6629,13 +6768,13 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -6679,13 +6818,13 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -6729,13 +6868,13 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6804,16 +6943,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -6848,16 +6987,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6904,16 +7043,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6960,16 +7099,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7016,16 +7155,16 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7072,16 +7211,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7128,16 +7267,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7184,16 +7323,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7240,16 +7379,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7296,13 +7435,13 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7349,13 +7488,13 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7402,13 +7541,13 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -7455,13 +7594,13 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -7533,16 +7672,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -7580,16 +7719,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7639,16 +7778,16 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7698,16 +7837,16 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7757,16 +7896,16 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7816,16 +7955,16 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7875,16 +8014,16 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7934,16 +8073,16 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7993,16 +8132,16 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -8052,13 +8191,13 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -8108,13 +8247,13 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -8164,13 +8303,13 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -8220,13 +8359,13 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -8301,16 +8440,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -8351,16 +8490,16 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -8413,16 +8552,16 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -8475,16 +8614,16 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -8537,16 +8676,16 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8599,16 +8738,16 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -8661,16 +8800,16 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8723,16 +8862,16 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8785,16 +8924,16 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -8847,16 +8986,16 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -8909,16 +9048,16 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -8971,16 +9110,16 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9057,6 +9196,905 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
       <c r="E1" s="1">
         <v>0</v>
       </c>
@@ -9108,19 +10146,22 @@
       <c r="U1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -9129,19 +10170,19 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -9156,16 +10197,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -9173,20 +10214,23 @@
       <c r="U2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -9203,13 +10247,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -9218,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -9233,21 +10277,24 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
@@ -9259,13 +10306,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -9283,39 +10330,42 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9327,13 +10377,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -9342,16 +10392,16 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -9363,42 +10413,45 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -9407,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -9416,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -9433,31 +10486,37 @@
       <c r="U6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -9469,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -9481,10 +10540,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -9495,16 +10554,22 @@
       <c r="U7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9519,10 +10584,10 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -9531,25 +10596,25 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>1</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -9557,96 +10622,108 @@
       <c r="U8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
         <v>73</v>
       </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -9670,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -9681,16 +10758,22 @@
       <c r="U10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -9702,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -9711,13 +10794,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -9726,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -9735,42 +10818,48 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -9779,10 +10868,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -9791,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -9805,128 +10894,7 @@
       <c r="U12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
+      <c r="V12">
         <v>0</v>
       </c>
     </row>
@@ -9948,19 +10916,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9968,16 +10936,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9985,16 +10953,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10002,19 +10970,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10022,16 +10990,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10039,16 +11007,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10056,19 +11024,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10076,16 +11044,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10093,16 +11061,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10110,19 +11078,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10130,16 +11098,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -10160,19 +11128,19 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10180,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10197,16 +11165,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10214,19 +11182,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10234,16 +11202,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10251,16 +11219,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10268,16 +11236,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10285,19 +11253,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10305,16 +11273,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10322,19 +11290,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10342,16 +11310,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -10372,19 +11340,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10392,16 +11360,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10409,19 +11377,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10429,16 +11397,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10446,16 +11414,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10463,19 +11431,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10483,16 +11451,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10500,16 +11468,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10517,19 +11485,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10537,16 +11505,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10554,16 +11522,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -10584,19 +11552,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10604,19 +11572,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10624,16 +11592,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10641,19 +11609,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10661,16 +11629,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10678,19 +11646,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10698,16 +11666,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10715,16 +11683,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10732,16 +11700,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10749,16 +11717,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10766,16 +11734,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -10796,19 +11764,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10816,16 +11784,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10833,16 +11801,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10850,16 +11818,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10867,16 +11835,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10884,16 +11852,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10901,16 +11869,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10918,19 +11886,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10938,16 +11906,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10955,16 +11923,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10972,16 +11940,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10989,16 +11957,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -11028,16 +11996,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -11048,16 +12016,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -11080,16 +12048,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -11112,16 +12080,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -11144,16 +12112,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -11176,16 +12144,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -11208,16 +12176,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11240,16 +12208,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11272,16 +12240,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -11304,13 +12272,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -11333,13 +12301,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -11362,13 +12330,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -11391,13 +12359,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -11445,16 +12413,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -11468,16 +12436,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -11503,16 +12471,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -11538,16 +12506,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -11573,16 +12541,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -11608,16 +12576,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -11643,16 +12611,16 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11678,16 +12646,16 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11713,16 +12681,16 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -11748,13 +12716,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -11780,13 +12748,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -11812,13 +12780,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -11844,13 +12812,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -11901,16 +12869,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1">
         <v>4</v>
@@ -11927,16 +12895,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -11965,16 +12933,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -12003,16 +12971,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -12041,16 +13009,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -12079,16 +13047,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -12117,16 +13085,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12155,16 +13123,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12193,16 +13161,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -12231,13 +13199,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -12266,13 +13234,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -12301,13 +13269,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -12336,13 +13304,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13">
         <v>0</v>
